--- a/tests/output/04-structure.xlsx
+++ b/tests/output/04-structure.xlsx
@@ -420,6 +420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -452,6 +455,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
